--- a/medicine/Psychotrope/Château_Pichon-Longueville/Château_Pichon-Longueville.xlsx
+++ b/medicine/Psychotrope/Château_Pichon-Longueville/Château_Pichon-Longueville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Pichon-Longueville</t>
+          <t>Château_Pichon-Longueville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Château Pichon-Longueville (appelé également Château Pichon Baron[2] afin d'éviter la confusion avec le Château Pichon Longueville Comtesse de Lalande)  est un domaine viticole de 73 ha situé à Pauillac en Gironde. Son vin, en appellation pauillac, est classé deuxième grand cru dans la classification officielle des vins de Bordeaux de 1855.
+Château Pichon-Longueville (appelé également Château Pichon Baron afin d'éviter la confusion avec le Château Pichon Longueville Comtesse de Lalande)  est un domaine viticole de 73 ha situé à Pauillac en Gironde. Son vin, en appellation pauillac, est classé deuxième grand cru dans la classification officielle des vins de Bordeaux de 1855.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Pichon-Longueville</t>
+          <t>Château_Pichon-Longueville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château Pichon-Longueville[3] a été construit au XIXe siècle par le baron Albert Pichon[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château Pichon-Longueville a été construit au XIXe siècle par le baron Albert Pichon.
 	Illustrations du château Pichon-Longueville au XIXe siècle
 			En 1838.
 			En 1893.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Pichon-Longueville</t>
+          <t>Château_Pichon-Longueville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'encépagement de Pichon-Longueville est de 60 % cabernet sauvignon, 35 % merlot, 4 % cabernet franc, 1 % petit verdot avec des vignes de 30 ans de moyenne d'âge.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Pichon-Longueville</t>
+          <t>Château_Pichon-Longueville</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1986, le château Pichon Baron produit également un second vin, Les Tourelles de Longueville.
-Depuis 2012, le château produit également un autre vin, les Griffons de Pichon Baron[5]
+Depuis 2012, le château produit également un autre vin, les Griffons de Pichon Baron
 	Le château Pichon-Longueville en images
 			Les Tourelles de Longueville (le second vin).
 			La vinification en cuves inox.
